--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6230">
   <si>
     <t>Course Name</t>
   </si>
@@ -18890,22 +18890,316 @@
   <si>
     <t>https://coursera.org/learn/math-through-problem-solving</t>
   </si>
+  <si>
+    <t>Love as a Force for Social Justice</t>
+  </si>
+  <si>
+    <t>love-social-justice</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/love-social-justice</t>
+  </si>
+  <si>
+    <t>Sustainability of Social-Ecological Systems: the Nexus between Water, Energy and Food</t>
+  </si>
+  <si>
+    <t>sustainability-social-ecological-systems</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sustainability-social-ecological-systems</t>
+  </si>
+  <si>
+    <t>Spanish Vocabulary Project</t>
+  </si>
+  <si>
+    <t>spanish-vocabulary-project</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/spanish-vocabulary-project</t>
+  </si>
+  <si>
+    <t>Understanding child development: from synaps to society</t>
+  </si>
+  <si>
+    <t>dynamicsofyouth</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/dynamicsofyouth</t>
+  </si>
+  <si>
+    <t>Unravelling solutions for Future Food problems</t>
+  </si>
+  <si>
+    <t>futurefood</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/futurefood</t>
+  </si>
+  <si>
+    <t>Intellectual Humility: Science</t>
+  </si>
+  <si>
+    <t>intellectual-humility-science</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/intellectual-humility-science</t>
+  </si>
+  <si>
+    <t>Environmental Management &amp; Ethics</t>
+  </si>
+  <si>
+    <t>environmental-management-ethics</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/environmental-management-ethics</t>
+  </si>
+  <si>
+    <t>Cybersecurity Policy for Aviation and Internet Infrastructures</t>
+  </si>
+  <si>
+    <t>cybersecurity-policy-aviation-internet</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/cybersecurity-policy-aviation-internet</t>
+  </si>
+  <si>
+    <t>Homeland Security and Cybersecurity Future</t>
+  </si>
+  <si>
+    <t>homeland-security-cybersecurity-future</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/homeland-security-cybersecurity-future</t>
+  </si>
+  <si>
+    <t>Homeland Security &amp; Cybersecurity Connection - It's Not About the Terrorists</t>
+  </si>
+  <si>
+    <t>homeland-security-cybersecurity-connection</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/homeland-security-cybersecurity-connection</t>
+  </si>
+  <si>
+    <t>Cybersecurity Policy for Water and Electricity Infrastructures</t>
+  </si>
+  <si>
+    <t>cybersecurity-policy-water-electricity</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/cybersecurity-policy-water-electricity</t>
+  </si>
+  <si>
+    <t>VLSI CAD Part II: Layout</t>
+  </si>
+  <si>
+    <t>vlsi-cad-layout</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/vlsi-cad-layout</t>
+  </si>
+  <si>
+    <t>VLSI CAD Part I: Logic</t>
+  </si>
+  <si>
+    <t>vlsi-cad-logic</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/vlsi-cad-logic</t>
+  </si>
+  <si>
+    <t>Electric Industry Operations and Markets</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/electricity</t>
+  </si>
+  <si>
+    <t>G Suite Administrator Fundamentals</t>
+  </si>
+  <si>
+    <t>gsuite-admin-fundamentals</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/gsuite-admin-fundamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Science of Health Care Delivery </t>
+  </si>
+  <si>
+    <t>science-healthcare-delivery</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/science-healthcare-delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Psychiatry and Mental Health </t>
+  </si>
+  <si>
+    <t>positive-psychiatry</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/positive-psychiatry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing your world </t>
+  </si>
+  <si>
+    <t>writing-your-world</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/writing-your-world</t>
+  </si>
+  <si>
+    <t>Protecting Business Innovations via Copyright</t>
+  </si>
+  <si>
+    <t>protect-business-innovations-copyright</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/protect-business-innovations-copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBSE: Model-Based Systems Engineering </t>
+  </si>
+  <si>
+    <t>mbse</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/mbse</t>
+  </si>
+  <si>
+    <t>Mobile Interaction Design: How to Design Usable Mobile Products and Services</t>
+  </si>
+  <si>
+    <t>mobile-interaction-design</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/mobile-interaction-design</t>
+  </si>
+  <si>
+    <t>After the Arab Spring – Democratic Aspirations and State Failure</t>
+  </si>
+  <si>
+    <t>after-the-arab-spring</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/after-the-arab-spring</t>
+  </si>
+  <si>
+    <t>The Unix Workbench</t>
+  </si>
+  <si>
+    <t>unix</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/unix</t>
+  </si>
+  <si>
+    <t>Six Sigma Tools for Improve and Control</t>
+  </si>
+  <si>
+    <t>six-sigma-improve-control</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-improve-control</t>
+  </si>
+  <si>
+    <t>Six Sigma Tools for Define and Measure</t>
+  </si>
+  <si>
+    <t>six-sigma-tools-define-measure</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-tools-define-measure</t>
+  </si>
+  <si>
+    <t>Project Risk and Quality Management</t>
+  </si>
+  <si>
+    <t>project-risk-quality-management</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/project-risk-quality-management</t>
+  </si>
+  <si>
+    <t>Six Sigma Tools for Analyze</t>
+  </si>
+  <si>
+    <t>six-sigma-analyze</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-analyze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six Sigma Principles </t>
+  </si>
+  <si>
+    <t>six-sigma-principles</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-principles</t>
+  </si>
+  <si>
+    <t>Industrial Biotechnology</t>
+  </si>
+  <si>
+    <t>industrial-biotech</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/industrial-biotech</t>
+  </si>
+  <si>
+    <t>The Dynamics of Group Communication</t>
+  </si>
+  <si>
+    <t>dynamics-group-communication</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/dynamics-group-communication</t>
+  </si>
+  <si>
+    <t>Whole genome sequencing of bacterial genomes - tools and applications</t>
+  </si>
+  <si>
+    <t>wgs-bacteria</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/wgs-bacteria</t>
+  </si>
+  <si>
+    <t>Epidemiology in Public Health Practice</t>
+  </si>
+  <si>
+    <t>epidemiology-public-health</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/epidemiology-public-health</t>
+  </si>
+  <si>
+    <t>Multiplatform Mobile App Development with Web Technologies: Nativescript</t>
+  </si>
+  <si>
+    <t>nativescript</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/nativescript</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -18928,9 +19222,8 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -19228,16 +19521,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1503"/>
+  <dimension ref="A1:F1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col max="1" min="1" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -49175,6 +49465,468 @@
       <c r="E1503" t="s"/>
       <c r="F1503" t="s"/>
     </row>
+    <row r="1504" spans="1:6">
+      <c r="A1504" t="s">
+        <v>6131</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>6132</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D1504" t="s"/>
+      <c r="E1504" t="s"/>
+      <c r="F1504" t="s"/>
+    </row>
+    <row r="1505" spans="1:6">
+      <c r="A1505" t="s">
+        <v>6134</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>6135</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>6136</v>
+      </c>
+      <c r="D1505" t="s"/>
+      <c r="E1505" t="s"/>
+      <c r="F1505" t="s"/>
+    </row>
+    <row r="1506" spans="1:6">
+      <c r="A1506" t="s">
+        <v>6137</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>6138</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D1506" t="s"/>
+      <c r="E1506" t="s"/>
+      <c r="F1506" t="s"/>
+    </row>
+    <row r="1507" spans="1:6">
+      <c r="A1507" t="s">
+        <v>6140</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>6141</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>6142</v>
+      </c>
+      <c r="D1507" t="s"/>
+      <c r="E1507" t="s"/>
+      <c r="F1507" t="s"/>
+    </row>
+    <row r="1508" spans="1:6">
+      <c r="A1508" t="s">
+        <v>6143</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>6144</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D1508" t="s"/>
+      <c r="E1508" t="s"/>
+      <c r="F1508" t="s"/>
+    </row>
+    <row r="1509" spans="1:6">
+      <c r="A1509" t="s">
+        <v>6146</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>6147</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D1509" t="s"/>
+      <c r="E1509" t="s"/>
+      <c r="F1509" t="s"/>
+    </row>
+    <row r="1510" spans="1:6">
+      <c r="A1510" t="s">
+        <v>6149</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>6150</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D1510" t="s"/>
+      <c r="E1510" t="s"/>
+      <c r="F1510" t="s"/>
+    </row>
+    <row r="1511" spans="1:6">
+      <c r="A1511" t="s">
+        <v>6152</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>6153</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>6154</v>
+      </c>
+      <c r="D1511" t="s"/>
+      <c r="E1511" t="s"/>
+      <c r="F1511" t="s"/>
+    </row>
+    <row r="1512" spans="1:6">
+      <c r="A1512" t="s">
+        <v>6155</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>6156</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D1512" t="s"/>
+      <c r="E1512" t="s"/>
+      <c r="F1512" t="s"/>
+    </row>
+    <row r="1513" spans="1:6">
+      <c r="A1513" t="s">
+        <v>6158</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>6159</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D1513" t="s"/>
+      <c r="E1513" t="s"/>
+      <c r="F1513" t="s"/>
+    </row>
+    <row r="1514" spans="1:6">
+      <c r="A1514" t="s">
+        <v>6161</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>6162</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D1514" t="s"/>
+      <c r="E1514" t="s"/>
+      <c r="F1514" t="s"/>
+    </row>
+    <row r="1515" spans="1:6">
+      <c r="A1515" t="s">
+        <v>6164</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>6165</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>6166</v>
+      </c>
+      <c r="D1515" t="s"/>
+      <c r="E1515" t="s"/>
+      <c r="F1515" t="s"/>
+    </row>
+    <row r="1516" spans="1:6">
+      <c r="A1516" t="s">
+        <v>6167</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>6168</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D1516" t="s"/>
+      <c r="E1516" t="s"/>
+      <c r="F1516" t="s"/>
+    </row>
+    <row r="1517" spans="1:6">
+      <c r="A1517" t="s">
+        <v>6170</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>6171</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D1517" t="s"/>
+      <c r="E1517" t="s"/>
+      <c r="F1517" t="s"/>
+    </row>
+    <row r="1518" spans="1:6">
+      <c r="A1518" t="s">
+        <v>6173</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>6174</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>6175</v>
+      </c>
+      <c r="D1518" t="s"/>
+      <c r="E1518" t="s"/>
+      <c r="F1518" t="s"/>
+    </row>
+    <row r="1519" spans="1:6">
+      <c r="A1519" t="s">
+        <v>6176</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>6177</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D1519" t="s"/>
+      <c r="E1519" t="s"/>
+      <c r="F1519" t="s"/>
+    </row>
+    <row r="1520" spans="1:6">
+      <c r="A1520" t="s">
+        <v>6179</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>6180</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>6181</v>
+      </c>
+      <c r="D1520" t="s"/>
+      <c r="E1520" t="s"/>
+      <c r="F1520" t="s"/>
+    </row>
+    <row r="1521" spans="1:6">
+      <c r="A1521" t="s">
+        <v>6182</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>6183</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>6184</v>
+      </c>
+      <c r="D1521" t="s"/>
+      <c r="E1521" t="s"/>
+      <c r="F1521" t="s"/>
+    </row>
+    <row r="1522" spans="1:6">
+      <c r="A1522" t="s">
+        <v>6185</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>6186</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D1522" t="s"/>
+      <c r="E1522" t="s"/>
+      <c r="F1522" t="s"/>
+    </row>
+    <row r="1523" spans="1:6">
+      <c r="A1523" t="s">
+        <v>6188</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>6189</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>6190</v>
+      </c>
+      <c r="D1523" t="s"/>
+      <c r="E1523" t="s"/>
+      <c r="F1523" t="s"/>
+    </row>
+    <row r="1524" spans="1:6">
+      <c r="A1524" t="s">
+        <v>6191</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>6192</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D1524" t="s"/>
+      <c r="E1524" t="s"/>
+      <c r="F1524" t="s"/>
+    </row>
+    <row r="1525" spans="1:6">
+      <c r="A1525" t="s">
+        <v>6194</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>6195</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>6196</v>
+      </c>
+      <c r="D1525" t="s"/>
+      <c r="E1525" t="s"/>
+      <c r="F1525" t="s"/>
+    </row>
+    <row r="1526" spans="1:6">
+      <c r="A1526" t="s">
+        <v>6197</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>6198</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>6199</v>
+      </c>
+      <c r="D1526" t="s"/>
+      <c r="E1526" t="s"/>
+      <c r="F1526" t="s"/>
+    </row>
+    <row r="1527" spans="1:6">
+      <c r="A1527" t="s">
+        <v>6200</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>6201</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>6202</v>
+      </c>
+      <c r="D1527" t="s"/>
+      <c r="E1527" t="s"/>
+      <c r="F1527" t="s"/>
+    </row>
+    <row r="1528" spans="1:6">
+      <c r="A1528" t="s">
+        <v>6203</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>6204</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D1528" t="s"/>
+      <c r="E1528" t="s"/>
+      <c r="F1528" t="s"/>
+    </row>
+    <row r="1529" spans="1:6">
+      <c r="A1529" t="s">
+        <v>6206</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>6207</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>6208</v>
+      </c>
+      <c r="D1529" t="s"/>
+      <c r="E1529" t="s"/>
+      <c r="F1529" t="s"/>
+    </row>
+    <row r="1530" spans="1:6">
+      <c r="A1530" t="s">
+        <v>6209</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>6210</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>6211</v>
+      </c>
+      <c r="D1530" t="s"/>
+      <c r="E1530" t="s"/>
+      <c r="F1530" t="s"/>
+    </row>
+    <row r="1531" spans="1:6">
+      <c r="A1531" t="s">
+        <v>6212</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>6213</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>6214</v>
+      </c>
+      <c r="D1531" t="s"/>
+      <c r="E1531" t="s"/>
+      <c r="F1531" t="s"/>
+    </row>
+    <row r="1532" spans="1:6">
+      <c r="A1532" t="s">
+        <v>6215</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>6216</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>6217</v>
+      </c>
+      <c r="D1532" t="s"/>
+      <c r="E1532" t="s"/>
+      <c r="F1532" t="s"/>
+    </row>
+    <row r="1533" spans="1:6">
+      <c r="A1533" t="s">
+        <v>6218</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>6219</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>6220</v>
+      </c>
+      <c r="D1533" t="s"/>
+      <c r="E1533" t="s"/>
+      <c r="F1533" t="s"/>
+    </row>
+    <row r="1534" spans="1:6">
+      <c r="A1534" t="s">
+        <v>6221</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>6222</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>6223</v>
+      </c>
+      <c r="D1534" t="s"/>
+      <c r="E1534" t="s"/>
+      <c r="F1534" t="s"/>
+    </row>
+    <row r="1535" spans="1:6">
+      <c r="A1535" t="s">
+        <v>6224</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>6225</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>6226</v>
+      </c>
+      <c r="D1535" t="s"/>
+      <c r="E1535" t="s"/>
+      <c r="F1535" t="s"/>
+    </row>
+    <row r="1536" spans="1:6">
+      <c r="A1536" t="s">
+        <v>6227</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>6228</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>6229</v>
+      </c>
+      <c r="D1536" t="s"/>
+      <c r="E1536" t="s"/>
+      <c r="F1536" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6239">
   <si>
     <t>Course Name</t>
   </si>
@@ -19186,6 +19186,33 @@
   </si>
   <si>
     <t>https://coursera.org/learn/nativescript</t>
+  </si>
+  <si>
+    <t>Understanding Your Data: Analytical Tools</t>
+  </si>
+  <si>
+    <t>uva-darden-understanding-data-tools</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/uva-darden-understanding-data-tools</t>
+  </si>
+  <si>
+    <t>Everyday Parenting: The ABCs of Child Rearing</t>
+  </si>
+  <si>
+    <t>everyday-parenting</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/everyday-parenting</t>
+  </si>
+  <si>
+    <t>Accounting Analysis I: Measurement and Disclosure of Assets</t>
+  </si>
+  <si>
+    <t>asset-measurement-disclosure</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/asset-measurement-disclosure</t>
   </si>
 </sst>
 </file>
@@ -19521,7 +19548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1536"/>
+  <dimension ref="A1:F1539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49927,6 +49954,48 @@
       <c r="E1536" t="s"/>
       <c r="F1536" t="s"/>
     </row>
+    <row r="1537" spans="1:6">
+      <c r="A1537" t="s">
+        <v>6230</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>6231</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>6232</v>
+      </c>
+      <c r="D1537" t="s"/>
+      <c r="E1537" t="s"/>
+      <c r="F1537" t="s"/>
+    </row>
+    <row r="1538" spans="1:6">
+      <c r="A1538" t="s">
+        <v>6233</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>6234</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>6235</v>
+      </c>
+      <c r="D1538" t="s"/>
+      <c r="E1538" t="s"/>
+      <c r="F1538" t="s"/>
+    </row>
+    <row r="1539" spans="1:6">
+      <c r="A1539" t="s">
+        <v>6236</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>6237</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>6238</v>
+      </c>
+      <c r="D1539" t="s"/>
+      <c r="E1539" t="s"/>
+      <c r="F1539" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6245">
   <si>
     <t>Course Name</t>
   </si>
@@ -19213,6 +19213,24 @@
   </si>
   <si>
     <t>https://coursera.org/learn/asset-measurement-disclosure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal Tech &amp; Startups </t>
+  </si>
+  <si>
+    <t>legal-tech-startups</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/legal-tech-startups</t>
+  </si>
+  <si>
+    <t>Tinkering Fundamentals: Motion and Mechanisms</t>
+  </si>
+  <si>
+    <t>tinkering-motion</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/tinkering-motion</t>
   </si>
 </sst>
 </file>
@@ -19548,7 +19566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1539"/>
+  <dimension ref="A1:F1541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49996,6 +50014,34 @@
       <c r="E1539" t="s"/>
       <c r="F1539" t="s"/>
     </row>
+    <row r="1540" spans="1:6">
+      <c r="A1540" t="s">
+        <v>6239</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>6240</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>6241</v>
+      </c>
+      <c r="D1540" t="s"/>
+      <c r="E1540" t="s"/>
+      <c r="F1540" t="s"/>
+    </row>
+    <row r="1541" spans="1:6">
+      <c r="A1541" t="s">
+        <v>6242</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>6243</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>6244</v>
+      </c>
+      <c r="D1541" t="s"/>
+      <c r="E1541" t="s"/>
+      <c r="F1541" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6272">
   <si>
     <t>Course Name</t>
   </si>
@@ -19231,6 +19231,87 @@
   </si>
   <si>
     <t>https://coursera.org/learn/tinkering-motion</t>
+  </si>
+  <si>
+    <t>Concurrent Programming in Java</t>
+  </si>
+  <si>
+    <t>concurrent-programming-in-java</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/concurrent-programming-in-java</t>
+  </si>
+  <si>
+    <t>Parallel Programming in Java</t>
+  </si>
+  <si>
+    <t>parallel-programming-in-java</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/parallel-programming-in-java</t>
+  </si>
+  <si>
+    <t>Distributed Programming in Java</t>
+  </si>
+  <si>
+    <t>distributed-programming-in-java</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/distributed-programming-in-java</t>
+  </si>
+  <si>
+    <t>Applied Text Mining in Python</t>
+  </si>
+  <si>
+    <t>python-text-mining</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/python-text-mining</t>
+  </si>
+  <si>
+    <t>Global Impact: Cultural Psychology</t>
+  </si>
+  <si>
+    <t>cultural-psychology-globalization</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/cultural-psychology-globalization</t>
+  </si>
+  <si>
+    <t>Entrepreneurship I: Principles and Concepts</t>
+  </si>
+  <si>
+    <t>entrepreneurship-1</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/entrepreneurship-1</t>
+  </si>
+  <si>
+    <t>Federal Taxation I: Individuals, Employees, and Sole Proprietors</t>
+  </si>
+  <si>
+    <t>federal-taxation-individuals</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/federal-taxation-individuals</t>
+  </si>
+  <si>
+    <t>Data Analytics Foundations for Accountancy I</t>
+  </si>
+  <si>
+    <t>data-analytics-accountancy-1</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/data-analytics-accountancy-1</t>
+  </si>
+  <si>
+    <t>Introduction to solar cells</t>
+  </si>
+  <si>
+    <t>solar-cells</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/solar-cells</t>
   </si>
 </sst>
 </file>
@@ -19566,7 +19647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1541"/>
+  <dimension ref="A1:F1550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50042,6 +50123,132 @@
       <c r="E1541" t="s"/>
       <c r="F1541" t="s"/>
     </row>
+    <row r="1542" spans="1:6">
+      <c r="A1542" t="s">
+        <v>6245</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>6246</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>6247</v>
+      </c>
+      <c r="D1542" t="s"/>
+      <c r="E1542" t="s"/>
+      <c r="F1542" t="s"/>
+    </row>
+    <row r="1543" spans="1:6">
+      <c r="A1543" t="s">
+        <v>6248</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>6249</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>6250</v>
+      </c>
+      <c r="D1543" t="s"/>
+      <c r="E1543" t="s"/>
+      <c r="F1543" t="s"/>
+    </row>
+    <row r="1544" spans="1:6">
+      <c r="A1544" t="s">
+        <v>6251</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>6252</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>6253</v>
+      </c>
+      <c r="D1544" t="s"/>
+      <c r="E1544" t="s"/>
+      <c r="F1544" t="s"/>
+    </row>
+    <row r="1545" spans="1:6">
+      <c r="A1545" t="s">
+        <v>6254</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>6255</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>6256</v>
+      </c>
+      <c r="D1545" t="s"/>
+      <c r="E1545" t="s"/>
+      <c r="F1545" t="s"/>
+    </row>
+    <row r="1546" spans="1:6">
+      <c r="A1546" t="s">
+        <v>6257</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>6258</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>6259</v>
+      </c>
+      <c r="D1546" t="s"/>
+      <c r="E1546" t="s"/>
+      <c r="F1546" t="s"/>
+    </row>
+    <row r="1547" spans="1:6">
+      <c r="A1547" t="s">
+        <v>6260</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>6261</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>6262</v>
+      </c>
+      <c r="D1547" t="s"/>
+      <c r="E1547" t="s"/>
+      <c r="F1547" t="s"/>
+    </row>
+    <row r="1548" spans="1:6">
+      <c r="A1548" t="s">
+        <v>6263</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>6264</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>6265</v>
+      </c>
+      <c r="D1548" t="s"/>
+      <c r="E1548" t="s"/>
+      <c r="F1548" t="s"/>
+    </row>
+    <row r="1549" spans="1:6">
+      <c r="A1549" t="s">
+        <v>6266</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>6267</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>6268</v>
+      </c>
+      <c r="D1549" t="s"/>
+      <c r="E1549" t="s"/>
+      <c r="F1549" t="s"/>
+    </row>
+    <row r="1550" spans="1:6">
+      <c r="A1550" t="s">
+        <v>6269</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>6270</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>6271</v>
+      </c>
+      <c r="D1550" t="s"/>
+      <c r="E1550" t="s"/>
+      <c r="F1550" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6314">
   <si>
     <t>Course Name</t>
   </si>
@@ -19312,6 +19312,132 @@
   </si>
   <si>
     <t>https://coursera.org/learn/solar-cells</t>
+  </si>
+  <si>
+    <t>Improving Deep Neural Networks: Hyperparameter tuning, Regularization and Optimization</t>
+  </si>
+  <si>
+    <t>deep-neural-network</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/deep-neural-network</t>
+  </si>
+  <si>
+    <t>Structuring Machine Learning Projects</t>
+  </si>
+  <si>
+    <t>machine-learning-projects</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/machine-learning-projects</t>
+  </si>
+  <si>
+    <t>Neural Networks and Deep Learning</t>
+  </si>
+  <si>
+    <t>neural-networks-deep-learning</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/neural-networks-deep-learning</t>
+  </si>
+  <si>
+    <t>Influence</t>
+  </si>
+  <si>
+    <t>wharton-influence</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/wharton-influence</t>
+  </si>
+  <si>
+    <t>The People, Power, and Pride of Public Health</t>
+  </si>
+  <si>
+    <t>public-health</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/public-health</t>
+  </si>
+  <si>
+    <t>Formal Financial Accounting</t>
+  </si>
+  <si>
+    <t>formal-financial-accounting</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/formal-financial-accounting</t>
+  </si>
+  <si>
+    <t>The Economics of Agro-Food Value Chains</t>
+  </si>
+  <si>
+    <t>valuechains</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/valuechains</t>
+  </si>
+  <si>
+    <t>Six Sigma Advanced Define and Measure Phase</t>
+  </si>
+  <si>
+    <t>six-sigma-define-measure-advanced</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-define-measure-advanced</t>
+  </si>
+  <si>
+    <t>Global Impact: Business Ethics</t>
+  </si>
+  <si>
+    <t>business-ethics</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/business-ethics</t>
+  </si>
+  <si>
+    <t>Understanding 9/11: Why Did al Qai’da Attack America?</t>
+  </si>
+  <si>
+    <t>911-attack</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/911-attack</t>
+  </si>
+  <si>
+    <t>Six Sigma Advanced Analyze Phase</t>
+  </si>
+  <si>
+    <t>six-sigma-analyze-advanced</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-analyze-advanced</t>
+  </si>
+  <si>
+    <t>Six Sigma and the Organization (Advanced)</t>
+  </si>
+  <si>
+    <t>six-sigma-organization-advanced</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-organization-advanced</t>
+  </si>
+  <si>
+    <t>Six Sigma Advanced Improve and Control Phase</t>
+  </si>
+  <si>
+    <t>six-sigma-improve-control-advanced</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/six-sigma-improve-control-advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadmap to Success in Digital Manufacturing &amp; Design </t>
+  </si>
+  <si>
+    <t>roadmap-success-digital-manufacturing-design</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/roadmap-success-digital-manufacturing-design</t>
   </si>
 </sst>
 </file>
@@ -19647,7 +19773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1550"/>
+  <dimension ref="A1:F1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50249,6 +50375,202 @@
       <c r="E1550" t="s"/>
       <c r="F1550" t="s"/>
     </row>
+    <row r="1551" spans="1:6">
+      <c r="A1551" t="s">
+        <v>6272</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>6273</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>6274</v>
+      </c>
+      <c r="D1551" t="s"/>
+      <c r="E1551" t="s"/>
+      <c r="F1551" t="s"/>
+    </row>
+    <row r="1552" spans="1:6">
+      <c r="A1552" t="s">
+        <v>6275</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>6276</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>6277</v>
+      </c>
+      <c r="D1552" t="s"/>
+      <c r="E1552" t="s"/>
+      <c r="F1552" t="s"/>
+    </row>
+    <row r="1553" spans="1:6">
+      <c r="A1553" t="s">
+        <v>6278</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>6280</v>
+      </c>
+      <c r="D1553" t="s"/>
+      <c r="E1553" t="s"/>
+      <c r="F1553" t="s"/>
+    </row>
+    <row r="1554" spans="1:6">
+      <c r="A1554" t="s">
+        <v>6281</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>6282</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>6283</v>
+      </c>
+      <c r="D1554" t="s"/>
+      <c r="E1554" t="s"/>
+      <c r="F1554" t="s"/>
+    </row>
+    <row r="1555" spans="1:6">
+      <c r="A1555" t="s">
+        <v>6284</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>6285</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>6286</v>
+      </c>
+      <c r="D1555" t="s"/>
+      <c r="E1555" t="s"/>
+      <c r="F1555" t="s"/>
+    </row>
+    <row r="1556" spans="1:6">
+      <c r="A1556" t="s">
+        <v>6287</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>6288</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>6289</v>
+      </c>
+      <c r="D1556" t="s"/>
+      <c r="E1556" t="s"/>
+      <c r="F1556" t="s"/>
+    </row>
+    <row r="1557" spans="1:6">
+      <c r="A1557" t="s">
+        <v>6290</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>6291</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>6292</v>
+      </c>
+      <c r="D1557" t="s"/>
+      <c r="E1557" t="s"/>
+      <c r="F1557" t="s"/>
+    </row>
+    <row r="1558" spans="1:6">
+      <c r="A1558" t="s">
+        <v>6293</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>6294</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>6295</v>
+      </c>
+      <c r="D1558" t="s"/>
+      <c r="E1558" t="s"/>
+      <c r="F1558" t="s"/>
+    </row>
+    <row r="1559" spans="1:6">
+      <c r="A1559" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>6297</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>6298</v>
+      </c>
+      <c r="D1559" t="s"/>
+      <c r="E1559" t="s"/>
+      <c r="F1559" t="s"/>
+    </row>
+    <row r="1560" spans="1:6">
+      <c r="A1560" t="s">
+        <v>6299</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>6300</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>6301</v>
+      </c>
+      <c r="D1560" t="s"/>
+      <c r="E1560" t="s"/>
+      <c r="F1560" t="s"/>
+    </row>
+    <row r="1561" spans="1:6">
+      <c r="A1561" t="s">
+        <v>6302</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>6303</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>6304</v>
+      </c>
+      <c r="D1561" t="s"/>
+      <c r="E1561" t="s"/>
+      <c r="F1561" t="s"/>
+    </row>
+    <row r="1562" spans="1:6">
+      <c r="A1562" t="s">
+        <v>6305</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>6306</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>6307</v>
+      </c>
+      <c r="D1562" t="s"/>
+      <c r="E1562" t="s"/>
+      <c r="F1562" t="s"/>
+    </row>
+    <row r="1563" spans="1:6">
+      <c r="A1563" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>6309</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>6310</v>
+      </c>
+      <c r="D1563" t="s"/>
+      <c r="E1563" t="s"/>
+      <c r="F1563" t="s"/>
+    </row>
+    <row r="1564" spans="1:6">
+      <c r="A1564" t="s">
+        <v>6311</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>6312</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>6313</v>
+      </c>
+      <c r="D1564" t="s"/>
+      <c r="E1564" t="s"/>
+      <c r="F1564" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6469">
   <si>
     <t>Course Name</t>
   </si>
@@ -19743,6 +19743,285 @@
   </si>
   <si>
     <t>https://coursera.org/learn/math-through-problem-solving</t>
+  </si>
+  <si>
+    <t>Capstone:  Autonomous Runway Detection for IoT</t>
+  </si>
+  <si>
+    <t>autonomous-runway-detection</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/autonomous-runway-detection</t>
+  </si>
+  <si>
+    <t>Achieving Your Optimal Performance</t>
+  </si>
+  <si>
+    <t>achieving-your-optimal-performance</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/achieving-your-optimal-performance</t>
+  </si>
+  <si>
+    <t>Leveraging the Power of Professional Communities</t>
+  </si>
+  <si>
+    <t>leveraging-the-power-of-professional-communities</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/leveraging-the-power-of-professional-communities</t>
+  </si>
+  <si>
+    <t>Converting Challenges into Opportunities</t>
+  </si>
+  <si>
+    <t>converting-challenges-into-opportunities</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/converting-challenges-into-opportunities</t>
+  </si>
+  <si>
+    <t>Fixing Healthcare Delivery 2.0: Advanced Lean</t>
+  </si>
+  <si>
+    <t>fixing-healthcare-delivery-advanced-lean</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/fixing-healthcare-delivery-advanced-lean</t>
+  </si>
+  <si>
+    <t>Introduction to TCP/IP</t>
+  </si>
+  <si>
+    <t>tcpip</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/tcpip</t>
+  </si>
+  <si>
+    <t>From Brand to Image: Creating High Impact Campaigns That Tell Brand Stories</t>
+  </si>
+  <si>
+    <t>brandtoimage</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/brandtoimage</t>
+  </si>
+  <si>
+    <t>Introduction to Cisco Networking</t>
+  </si>
+  <si>
+    <t>cisco-networking-introduction</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/cisco-networking-introduction</t>
+  </si>
+  <si>
+    <t>Internet Connection: How to Get Online?</t>
+  </si>
+  <si>
+    <t>internet-connection-how-to-get-online</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/internet-connection-how-to-get-online</t>
+  </si>
+  <si>
+    <t>Mediation and Conflict Resolution</t>
+  </si>
+  <si>
+    <t>conflict-resolution-mediation</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/conflict-resolution-mediation</t>
+  </si>
+  <si>
+    <t>Philosophy, Science and Religion: Philosophy and Religion</t>
+  </si>
+  <si>
+    <t>philosophy-science-religion-2</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/philosophy-science-religion-2</t>
+  </si>
+  <si>
+    <t>Home Networking Basics</t>
+  </si>
+  <si>
+    <t>home-networking-basics</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/home-networking-basics</t>
+  </si>
+  <si>
+    <t>Network Protocols and Architecture</t>
+  </si>
+  <si>
+    <t>network-protocols-architecture</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/network-protocols-architecture</t>
+  </si>
+  <si>
+    <t>Data Communications and Network Services</t>
+  </si>
+  <si>
+    <t>data-communication-network-services</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/data-communication-network-services</t>
+  </si>
+  <si>
+    <t>Accounting for Decision Making</t>
+  </si>
+  <si>
+    <t>accounting</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/accounting</t>
+  </si>
+  <si>
+    <t>Genius. Talent. Golden Mediocrity</t>
+  </si>
+  <si>
+    <t>genius</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/genius</t>
+  </si>
+  <si>
+    <t>Entrepreneurship II: Practices and Approaches</t>
+  </si>
+  <si>
+    <t>entrepreneurship-2</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/entrepreneurship-2</t>
+  </si>
+  <si>
+    <t>Trade, Immigration and Exchange Rates in a Globalized World</t>
+  </si>
+  <si>
+    <t>trade-immigration-exchange-rates-globalized-world</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/trade-immigration-exchange-rates-globalized-world</t>
+  </si>
+  <si>
+    <t>Writing in the Sciences</t>
+  </si>
+  <si>
+    <t>sciwrite</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sciwrite</t>
+  </si>
+  <si>
+    <t>Combinatorics and Probability</t>
+  </si>
+  <si>
+    <t>combinatorics</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/combinatorics</t>
+  </si>
+  <si>
+    <t>Strategic Business Management - Macroeconomics</t>
+  </si>
+  <si>
+    <t>strategic-business-management-macroeconomics</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/strategic-business-management-macroeconomics</t>
+  </si>
+  <si>
+    <t>Introduction to Graph Theory</t>
+  </si>
+  <si>
+    <t>graphs</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/graphs</t>
+  </si>
+  <si>
+    <t>What is a Proof?</t>
+  </si>
+  <si>
+    <t>what-is-a-proof</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/what-is-a-proof</t>
+  </si>
+  <si>
+    <t>Design Patterns</t>
+  </si>
+  <si>
+    <t>design-patterns</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/design-patterns</t>
+  </si>
+  <si>
+    <t>Research Proposal: Initiating Research</t>
+  </si>
+  <si>
+    <t>research-proposal-initiating-research</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/research-proposal-initiating-research</t>
+  </si>
+  <si>
+    <t>Quantitative Research</t>
+  </si>
+  <si>
+    <t>quantitative-research</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/quantitative-research</t>
+  </si>
+  <si>
+    <t>Object-Oriented Design</t>
+  </si>
+  <si>
+    <t>object-oriented-design</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/object-oriented-design</t>
+  </si>
+  <si>
+    <t>Software Architecture</t>
+  </si>
+  <si>
+    <t>software-architecture</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/software-architecture</t>
+  </si>
+  <si>
+    <t>Strategic Business Management - Microeconomics</t>
+  </si>
+  <si>
+    <t>strategic-business-management-microeconomics</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/strategic-business-management-microeconomics</t>
+  </si>
+  <si>
+    <t>Qualitative Research</t>
+  </si>
+  <si>
+    <t>qualitative-research</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/qualitative-research</t>
+  </si>
+  <si>
+    <t>Introduction to FPGA Design for Embedded Systems</t>
+  </si>
+  <si>
+    <t>intro-fpga-design-embedded-systems</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/intro-fpga-design-embedded-systems</t>
   </si>
 </sst>
 </file>
@@ -20078,7 +20357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1564"/>
+  <dimension ref="A1:F1595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51242,6 +51521,440 @@
       <c r="E1564" t="s"/>
       <c r="F1564" t="s"/>
     </row>
+    <row r="1565" spans="1:6">
+      <c r="A1565" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>6377</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1565" t="s"/>
+      <c r="E1565" t="s"/>
+      <c r="F1565" t="s"/>
+    </row>
+    <row r="1566" spans="1:6">
+      <c r="A1566" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>6380</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>6381</v>
+      </c>
+      <c r="D1566" t="s"/>
+      <c r="E1566" t="s"/>
+      <c r="F1566" t="s"/>
+    </row>
+    <row r="1567" spans="1:6">
+      <c r="A1567" t="s">
+        <v>6382</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>6383</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>6384</v>
+      </c>
+      <c r="D1567" t="s"/>
+      <c r="E1567" t="s"/>
+      <c r="F1567" t="s"/>
+    </row>
+    <row r="1568" spans="1:6">
+      <c r="A1568" t="s">
+        <v>6385</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>6386</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>6387</v>
+      </c>
+      <c r="D1568" t="s"/>
+      <c r="E1568" t="s"/>
+      <c r="F1568" t="s"/>
+    </row>
+    <row r="1569" spans="1:6">
+      <c r="A1569" t="s">
+        <v>6388</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>6389</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>6390</v>
+      </c>
+      <c r="D1569" t="s"/>
+      <c r="E1569" t="s"/>
+      <c r="F1569" t="s"/>
+    </row>
+    <row r="1570" spans="1:6">
+      <c r="A1570" t="s">
+        <v>6391</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>6392</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>6393</v>
+      </c>
+      <c r="D1570" t="s"/>
+      <c r="E1570" t="s"/>
+      <c r="F1570" t="s"/>
+    </row>
+    <row r="1571" spans="1:6">
+      <c r="A1571" t="s">
+        <v>6394</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>6395</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>6396</v>
+      </c>
+      <c r="D1571" t="s"/>
+      <c r="E1571" t="s"/>
+      <c r="F1571" t="s"/>
+    </row>
+    <row r="1572" spans="1:6">
+      <c r="A1572" t="s">
+        <v>6397</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>6398</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>6399</v>
+      </c>
+      <c r="D1572" t="s"/>
+      <c r="E1572" t="s"/>
+      <c r="F1572" t="s"/>
+    </row>
+    <row r="1573" spans="1:6">
+      <c r="A1573" t="s">
+        <v>6400</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>6401</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>6402</v>
+      </c>
+      <c r="D1573" t="s"/>
+      <c r="E1573" t="s"/>
+      <c r="F1573" t="s"/>
+    </row>
+    <row r="1574" spans="1:6">
+      <c r="A1574" t="s">
+        <v>6403</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>6404</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>6405</v>
+      </c>
+      <c r="D1574" t="s"/>
+      <c r="E1574" t="s"/>
+      <c r="F1574" t="s"/>
+    </row>
+    <row r="1575" spans="1:6">
+      <c r="A1575" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>6407</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>6408</v>
+      </c>
+      <c r="D1575" t="s"/>
+      <c r="E1575" t="s"/>
+      <c r="F1575" t="s"/>
+    </row>
+    <row r="1576" spans="1:6">
+      <c r="A1576" t="s">
+        <v>6409</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>6410</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>6411</v>
+      </c>
+      <c r="D1576" t="s"/>
+      <c r="E1576" t="s"/>
+      <c r="F1576" t="s"/>
+    </row>
+    <row r="1577" spans="1:6">
+      <c r="A1577" t="s">
+        <v>6412</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>6413</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>6414</v>
+      </c>
+      <c r="D1577" t="s"/>
+      <c r="E1577" t="s"/>
+      <c r="F1577" t="s"/>
+    </row>
+    <row r="1578" spans="1:6">
+      <c r="A1578" t="s">
+        <v>6415</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>6416</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>6417</v>
+      </c>
+      <c r="D1578" t="s"/>
+      <c r="E1578" t="s"/>
+      <c r="F1578" t="s"/>
+    </row>
+    <row r="1579" spans="1:6">
+      <c r="A1579" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D1579" t="s"/>
+      <c r="E1579" t="s"/>
+      <c r="F1579" t="s"/>
+    </row>
+    <row r="1580" spans="1:6">
+      <c r="A1580" t="s">
+        <v>6421</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>6422</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>6423</v>
+      </c>
+      <c r="D1580" t="s"/>
+      <c r="E1580" t="s"/>
+      <c r="F1580" t="s"/>
+    </row>
+    <row r="1581" spans="1:6">
+      <c r="A1581" t="s">
+        <v>6424</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>6425</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>6426</v>
+      </c>
+      <c r="D1581" t="s"/>
+      <c r="E1581" t="s"/>
+      <c r="F1581" t="s"/>
+    </row>
+    <row r="1582" spans="1:6">
+      <c r="A1582" t="s">
+        <v>6427</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>6428</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>6429</v>
+      </c>
+      <c r="D1582" t="s"/>
+      <c r="E1582" t="s"/>
+      <c r="F1582" t="s"/>
+    </row>
+    <row r="1583" spans="1:6">
+      <c r="A1583" t="s">
+        <v>6430</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>6432</v>
+      </c>
+      <c r="D1583" t="s"/>
+      <c r="E1583" t="s"/>
+      <c r="F1583" t="s"/>
+    </row>
+    <row r="1584" spans="1:6">
+      <c r="A1584" t="s">
+        <v>6433</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>6435</v>
+      </c>
+      <c r="D1584" t="s"/>
+      <c r="E1584" t="s"/>
+      <c r="F1584" t="s"/>
+    </row>
+    <row r="1585" spans="1:6">
+      <c r="A1585" t="s">
+        <v>6436</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>6437</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>6438</v>
+      </c>
+      <c r="D1585" t="s"/>
+      <c r="E1585" t="s"/>
+      <c r="F1585" t="s"/>
+    </row>
+    <row r="1586" spans="1:6">
+      <c r="A1586" t="s">
+        <v>6439</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>6440</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>6441</v>
+      </c>
+      <c r="D1586" t="s"/>
+      <c r="E1586" t="s"/>
+      <c r="F1586" t="s"/>
+    </row>
+    <row r="1587" spans="1:6">
+      <c r="A1587" t="s">
+        <v>6442</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>6443</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>6444</v>
+      </c>
+      <c r="D1587" t="s"/>
+      <c r="E1587" t="s"/>
+      <c r="F1587" t="s"/>
+    </row>
+    <row r="1588" spans="1:6">
+      <c r="A1588" t="s">
+        <v>6445</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>6446</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>6447</v>
+      </c>
+      <c r="D1588" t="s"/>
+      <c r="E1588" t="s"/>
+      <c r="F1588" t="s"/>
+    </row>
+    <row r="1589" spans="1:6">
+      <c r="A1589" t="s">
+        <v>6448</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>6449</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>6450</v>
+      </c>
+      <c r="D1589" t="s"/>
+      <c r="E1589" t="s"/>
+      <c r="F1589" t="s"/>
+    </row>
+    <row r="1590" spans="1:6">
+      <c r="A1590" t="s">
+        <v>6451</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>6452</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>6453</v>
+      </c>
+      <c r="D1590" t="s"/>
+      <c r="E1590" t="s"/>
+      <c r="F1590" t="s"/>
+    </row>
+    <row r="1591" spans="1:6">
+      <c r="A1591" t="s">
+        <v>6454</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>6455</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>6456</v>
+      </c>
+      <c r="D1591" t="s"/>
+      <c r="E1591" t="s"/>
+      <c r="F1591" t="s"/>
+    </row>
+    <row r="1592" spans="1:6">
+      <c r="A1592" t="s">
+        <v>6457</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>6458</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>6459</v>
+      </c>
+      <c r="D1592" t="s"/>
+      <c r="E1592" t="s"/>
+      <c r="F1592" t="s"/>
+    </row>
+    <row r="1593" spans="1:6">
+      <c r="A1593" t="s">
+        <v>6460</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>6461</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>6462</v>
+      </c>
+      <c r="D1593" t="s"/>
+      <c r="E1593" t="s"/>
+      <c r="F1593" t="s"/>
+    </row>
+    <row r="1594" spans="1:6">
+      <c r="A1594" t="s">
+        <v>6463</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>6464</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>6465</v>
+      </c>
+      <c r="D1594" t="s"/>
+      <c r="E1594" t="s"/>
+      <c r="F1594" t="s"/>
+    </row>
+    <row r="1595" spans="1:6">
+      <c r="A1595" t="s">
+        <v>6466</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>6467</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>6468</v>
+      </c>
+      <c r="D1595" t="s"/>
+      <c r="E1595" t="s"/>
+      <c r="F1595" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6943">
   <si>
     <t>Course Name</t>
   </si>
@@ -21282,6 +21282,168 @@
   </si>
   <si>
     <t>https://coursera.org/learn/introduction-digital-manufacturing-fusion-360</t>
+  </si>
+  <si>
+    <t>Fundamental Neuroscience for Neuroimaging</t>
+  </si>
+  <si>
+    <t>neuroscience-neuroimaging</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/neuroscience-neuroimaging</t>
+  </si>
+  <si>
+    <t>Descriptive Research Methods in Psychology</t>
+  </si>
+  <si>
+    <t>descriptive-research-psychology</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/descriptive-research-psychology</t>
+  </si>
+  <si>
+    <t>A Circular Economy of Metals: Towards a Sustainable Societal Metabolism</t>
+  </si>
+  <si>
+    <t>circular-economy-metals</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/circular-economy-metals</t>
+  </si>
+  <si>
+    <t>Experimental Research Methods in Psychology</t>
+  </si>
+  <si>
+    <t>experimental-research-psychology</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/experimental-research-psychology</t>
+  </si>
+  <si>
+    <t>SQL for Data Science</t>
+  </si>
+  <si>
+    <t>sql-for-data-science</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sql-for-data-science</t>
+  </si>
+  <si>
+    <t>Sales Training: Techniques for a Human-Centric Sales Process</t>
+  </si>
+  <si>
+    <t>sales-process-techniques-training</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sales-process-techniques-training</t>
+  </si>
+  <si>
+    <t>Sales Strategy</t>
+  </si>
+  <si>
+    <t>sales-strategy</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sales-strategy</t>
+  </si>
+  <si>
+    <t>Effective Sales – An Overview</t>
+  </si>
+  <si>
+    <t>effective-sales-overview</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/effective-sales-overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models &amp; Frameworks to Support Sales Planning </t>
+  </si>
+  <si>
+    <t>models-frameworks-support-sales-planning</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/models-frameworks-support-sales-planning</t>
+  </si>
+  <si>
+    <t>Biochemical Principles of Energy Metabolism</t>
+  </si>
+  <si>
+    <t>energy-metabolism</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/energy-metabolism</t>
+  </si>
+  <si>
+    <t>Getting Started with Google Kubernetes Engine</t>
+  </si>
+  <si>
+    <t>google-kubernetes-engine</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/google-kubernetes-engine</t>
+  </si>
+  <si>
+    <t>Entrepreneurship</t>
+  </si>
+  <si>
+    <t>entrepreneurship</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/entrepreneurship</t>
+  </si>
+  <si>
+    <t>Translation in Practice</t>
+  </si>
+  <si>
+    <t>translation-in-practice</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/translation-in-practice</t>
+  </si>
+  <si>
+    <t>Selling to Chinese Consumers</t>
+  </si>
+  <si>
+    <t>selling-to-chinese-consumers</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/selling-to-chinese-consumers</t>
+  </si>
+  <si>
+    <t>China Strategy</t>
+  </si>
+  <si>
+    <t>china-strategy</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/china-strategy</t>
+  </si>
+  <si>
+    <t>Making Your First Virtual Reality Game</t>
+  </si>
+  <si>
+    <t>making-virtual-reality-game</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/making-virtual-reality-game</t>
+  </si>
+  <si>
+    <t>Sleep: Neurobiology, Medicine, and Society</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sleep</t>
+  </si>
+  <si>
+    <t>Cyber-Physical Systems 1</t>
+  </si>
+  <si>
+    <t>cyber-physical-systems-1</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/cyber-physical-systems-1</t>
   </si>
 </sst>
 </file>
@@ -21617,7 +21779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1735"/>
+  <dimension ref="A1:F1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55175,6 +55337,258 @@
       <c r="E1735" t="s"/>
       <c r="F1735" t="s"/>
     </row>
+    <row r="1736" spans="1:6">
+      <c r="A1736" t="s">
+        <v>6889</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>6890</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>6891</v>
+      </c>
+      <c r="D1736" t="s"/>
+      <c r="E1736" t="s"/>
+      <c r="F1736" t="s"/>
+    </row>
+    <row r="1737" spans="1:6">
+      <c r="A1737" t="s">
+        <v>6892</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>6893</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>6894</v>
+      </c>
+      <c r="D1737" t="s"/>
+      <c r="E1737" t="s"/>
+      <c r="F1737" t="s"/>
+    </row>
+    <row r="1738" spans="1:6">
+      <c r="A1738" t="s">
+        <v>6895</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>6896</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>6897</v>
+      </c>
+      <c r="D1738" t="s"/>
+      <c r="E1738" t="s"/>
+      <c r="F1738" t="s"/>
+    </row>
+    <row r="1739" spans="1:6">
+      <c r="A1739" t="s">
+        <v>6898</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>6899</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>6900</v>
+      </c>
+      <c r="D1739" t="s"/>
+      <c r="E1739" t="s"/>
+      <c r="F1739" t="s"/>
+    </row>
+    <row r="1740" spans="1:6">
+      <c r="A1740" t="s">
+        <v>6901</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>6902</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>6903</v>
+      </c>
+      <c r="D1740" t="s"/>
+      <c r="E1740" t="s"/>
+      <c r="F1740" t="s"/>
+    </row>
+    <row r="1741" spans="1:6">
+      <c r="A1741" t="s">
+        <v>6904</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>6905</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>6906</v>
+      </c>
+      <c r="D1741" t="s"/>
+      <c r="E1741" t="s"/>
+      <c r="F1741" t="s"/>
+    </row>
+    <row r="1742" spans="1:6">
+      <c r="A1742" t="s">
+        <v>6907</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>6908</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>6909</v>
+      </c>
+      <c r="D1742" t="s"/>
+      <c r="E1742" t="s"/>
+      <c r="F1742" t="s"/>
+    </row>
+    <row r="1743" spans="1:6">
+      <c r="A1743" t="s">
+        <v>6910</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>6911</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>6912</v>
+      </c>
+      <c r="D1743" t="s"/>
+      <c r="E1743" t="s"/>
+      <c r="F1743" t="s"/>
+    </row>
+    <row r="1744" spans="1:6">
+      <c r="A1744" t="s">
+        <v>6913</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>6914</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>6915</v>
+      </c>
+      <c r="D1744" t="s"/>
+      <c r="E1744" t="s"/>
+      <c r="F1744" t="s"/>
+    </row>
+    <row r="1745" spans="1:6">
+      <c r="A1745" t="s">
+        <v>6916</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>6917</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>6918</v>
+      </c>
+      <c r="D1745" t="s"/>
+      <c r="E1745" t="s"/>
+      <c r="F1745" t="s"/>
+    </row>
+    <row r="1746" spans="1:6">
+      <c r="A1746" t="s">
+        <v>6919</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>6920</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>6921</v>
+      </c>
+      <c r="D1746" t="s"/>
+      <c r="E1746" t="s"/>
+      <c r="F1746" t="s"/>
+    </row>
+    <row r="1747" spans="1:6">
+      <c r="A1747" t="s">
+        <v>6922</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>6923</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>6924</v>
+      </c>
+      <c r="D1747" t="s"/>
+      <c r="E1747" t="s"/>
+      <c r="F1747" t="s"/>
+    </row>
+    <row r="1748" spans="1:6">
+      <c r="A1748" t="s">
+        <v>6925</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>6926</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>6927</v>
+      </c>
+      <c r="D1748" t="s"/>
+      <c r="E1748" t="s"/>
+      <c r="F1748" t="s"/>
+    </row>
+    <row r="1749" spans="1:6">
+      <c r="A1749" t="s">
+        <v>6928</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>6929</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>6930</v>
+      </c>
+      <c r="D1749" t="s"/>
+      <c r="E1749" t="s"/>
+      <c r="F1749" t="s"/>
+    </row>
+    <row r="1750" spans="1:6">
+      <c r="A1750" t="s">
+        <v>6931</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>6932</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>6933</v>
+      </c>
+      <c r="D1750" t="s"/>
+      <c r="E1750" t="s"/>
+      <c r="F1750" t="s"/>
+    </row>
+    <row r="1751" spans="1:6">
+      <c r="A1751" t="s">
+        <v>6934</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>6936</v>
+      </c>
+      <c r="D1751" t="s"/>
+      <c r="E1751" t="s"/>
+      <c r="F1751" t="s"/>
+    </row>
+    <row r="1752" spans="1:6">
+      <c r="A1752" t="s">
+        <v>6937</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>6938</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>6939</v>
+      </c>
+      <c r="D1752" t="s"/>
+      <c r="E1752" t="s"/>
+      <c r="F1752" t="s"/>
+    </row>
+    <row r="1753" spans="1:6">
+      <c r="A1753" t="s">
+        <v>6940</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>6941</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>6942</v>
+      </c>
+      <c r="D1753" t="s"/>
+      <c r="E1753" t="s"/>
+      <c r="F1753" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/download/courses-annotated.xlsx
+++ b/download/courses-annotated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7132">
   <si>
     <t>Course Name</t>
   </si>
@@ -21444,6 +21444,573 @@
   </si>
   <si>
     <t>https://coursera.org/learn/cyber-physical-systems-1</t>
+  </si>
+  <si>
+    <t>Writing, Running, and Fixing Code in C</t>
+  </si>
+  <si>
+    <t>writing-running-fixing-code</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/writing-running-fixing-code</t>
+  </si>
+  <si>
+    <t>From disease to genes and back</t>
+  </si>
+  <si>
+    <t>disease-genes</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/disease-genes</t>
+  </si>
+  <si>
+    <t>Global Trends for Business and Society</t>
+  </si>
+  <si>
+    <t>wharton-global-trends-business</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/wharton-global-trends-business</t>
+  </si>
+  <si>
+    <t>Social Entrepreneurship</t>
+  </si>
+  <si>
+    <t>wharton-social-entrepreneurship</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/wharton-social-entrepreneurship</t>
+  </si>
+  <si>
+    <t>Introduction to Ordinary Differential Equations</t>
+  </si>
+  <si>
+    <t>ordinary-differential-equations</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/ordinary-differential-equations</t>
+  </si>
+  <si>
+    <t>Introduction to Indoor Air Quality</t>
+  </si>
+  <si>
+    <t>intro-indoor-air-quality</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/intro-indoor-air-quality</t>
+  </si>
+  <si>
+    <t>Getting Started With Application Development</t>
+  </si>
+  <si>
+    <t>getting-started-app-development</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/getting-started-app-development</t>
+  </si>
+  <si>
+    <t>App Deployment, Debugging, and Performance</t>
+  </si>
+  <si>
+    <t>app-deployment-debugging-performance</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/app-deployment-debugging-performance</t>
+  </si>
+  <si>
+    <t>General Pathophysiology</t>
+  </si>
+  <si>
+    <t>pathophysiology</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/pathophysiology</t>
+  </si>
+  <si>
+    <t>Requirements Specifications: Goals and Conflict Analysis</t>
+  </si>
+  <si>
+    <t>requirements-specification-goals</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/requirements-specification-goals</t>
+  </si>
+  <si>
+    <t>Requirements Gathering for Secure Software Development</t>
+  </si>
+  <si>
+    <t>requirements-gathering-secure</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/requirements-gathering-secure</t>
+  </si>
+  <si>
+    <t>Sofware Requirements Prioritization: Risk Analysis</t>
+  </si>
+  <si>
+    <t>software-requirements-prioritization</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/software-requirements-prioritization</t>
+  </si>
+  <si>
+    <t>Doing Business in Europe</t>
+  </si>
+  <si>
+    <t>doing-business-in-europe</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/doing-business-in-europe</t>
+  </si>
+  <si>
+    <t>Excel Skills for Business: Advanced</t>
+  </si>
+  <si>
+    <t>excel-advanced</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/excel-advanced</t>
+  </si>
+  <si>
+    <t>Requirements Elicitation: Artifact and Stakeholder Analysis</t>
+  </si>
+  <si>
+    <t>requirements-elicitation</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/requirements-elicitation</t>
+  </si>
+  <si>
+    <t>Intellectual Humility: Practice</t>
+  </si>
+  <si>
+    <t>intellectual-humility-practice</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/intellectual-humility-practice</t>
+  </si>
+  <si>
+    <t>SRS Documents: Requirements and Diagrammatic Notations</t>
+  </si>
+  <si>
+    <t>srs-documents-requirements</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/srs-documents-requirements</t>
+  </si>
+  <si>
+    <t>Securing and Integrating Components of your Application</t>
+  </si>
+  <si>
+    <t>securing-integrating-components-app</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/securing-integrating-components-app</t>
+  </si>
+  <si>
+    <t>Russia and Nuclear Arms Control</t>
+  </si>
+  <si>
+    <t>russia-and-nuclear-arms-control</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/russia-and-nuclear-arms-control</t>
+  </si>
+  <si>
+    <t>Voice Disorders: What Patients and Professionals Need to Know</t>
+  </si>
+  <si>
+    <t>voice-disorders</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/voice-disorders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate Strategy </t>
+  </si>
+  <si>
+    <t>corporatestrategy</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/corporatestrategy</t>
+  </si>
+  <si>
+    <t>Opioid Crisis Teach-Out</t>
+  </si>
+  <si>
+    <t>opioid-crisis</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/opioid-crisis</t>
+  </si>
+  <si>
+    <t>IBM Blockchain essentials for developers</t>
+  </si>
+  <si>
+    <t>ibm-blockchain-essentials-for-developers</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/ibm-blockchain-essentials-for-developers</t>
+  </si>
+  <si>
+    <t>Doing Business in China Capstone</t>
+  </si>
+  <si>
+    <t>doing-business-in-china-capstone</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/doing-business-in-china-capstone</t>
+  </si>
+  <si>
+    <t>A Developer's guide to Node-RED</t>
+  </si>
+  <si>
+    <t>developer-nodered</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/developer-nodered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innovative Finance: Hacking finance to change the world </t>
+  </si>
+  <si>
+    <t>innovative-finance</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/innovative-finance</t>
+  </si>
+  <si>
+    <t>Enterprise and Infrastructure Security</t>
+  </si>
+  <si>
+    <t>enterprise-infrastructure-security</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/enterprise-infrastructure-security</t>
+  </si>
+  <si>
+    <t>VR &amp; 360 Video Production</t>
+  </si>
+  <si>
+    <t>360-vr-video-production</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/360-vr-video-production</t>
+  </si>
+  <si>
+    <t>Air Pollution – a Global Threat to our Health</t>
+  </si>
+  <si>
+    <t>air-pollution-health-threat</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/air-pollution-health-threat</t>
+  </si>
+  <si>
+    <t>Excel/VBA for Creative Problem Solving, Part 1</t>
+  </si>
+  <si>
+    <t>excel-vba-for-creative-problem-solving-part-1</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/excel-vba-for-creative-problem-solving-part-1</t>
+  </si>
+  <si>
+    <t>Python Data Visualization</t>
+  </si>
+  <si>
+    <t>python-visualization</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/python-visualization</t>
+  </si>
+  <si>
+    <t>Reliable Cloud Infrastructure: Design and Process</t>
+  </si>
+  <si>
+    <t>architecting-gcp-design-process</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/architecting-gcp-design-process</t>
+  </si>
+  <si>
+    <t>Global Challenges in Business Capstone</t>
+  </si>
+  <si>
+    <t>global-challenges-business-capstone</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/global-challenges-business-capstone</t>
+  </si>
+  <si>
+    <t>Taxation of Business Entities I: Corporations</t>
+  </si>
+  <si>
+    <t>taxation-business-entities-part-1</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/taxation-business-entities-part-1</t>
+  </si>
+  <si>
+    <t>Accounting Analysis II: Measurement and Disclosure of Liabilities</t>
+  </si>
+  <si>
+    <t>accounting-analysis-2-liabilities</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/accounting-analysis-2-liabilities</t>
+  </si>
+  <si>
+    <t>Coexistence in Medieval Spain: Jews, Christians, and Muslims</t>
+  </si>
+  <si>
+    <t>coexistence-in-medieval-spain</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/coexistence-in-medieval-spain</t>
+  </si>
+  <si>
+    <t>Teacher SEL: Programs, Possibilities, and Contexts</t>
+  </si>
+  <si>
+    <t>teacher-sel-programs</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/teacher-sel-programs</t>
+  </si>
+  <si>
+    <t>SEL Capstone</t>
+  </si>
+  <si>
+    <t>sel-capstone</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sel-capstone</t>
+  </si>
+  <si>
+    <t>The Teacher's Social and Emotional Learning</t>
+  </si>
+  <si>
+    <t>teachers-social-emotional-learning</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/teachers-social-emotional-learning</t>
+  </si>
+  <si>
+    <t>SEL for Students: A Path to Social Emotional Well-Being</t>
+  </si>
+  <si>
+    <t>sel-for-students</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sel-for-students</t>
+  </si>
+  <si>
+    <t>Expanding SEL</t>
+  </si>
+  <si>
+    <t>expanding-sel</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/expanding-sel</t>
+  </si>
+  <si>
+    <t>Introduction to Apache Spark and AWS</t>
+  </si>
+  <si>
+    <t>bigdata-cluster-apache-spark-and-aws</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/bigdata-cluster-apache-spark-and-aws</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing Alignment</t>
+  </si>
+  <si>
+    <t>sales-marketing-alignment</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/sales-marketing-alignment</t>
+  </si>
+  <si>
+    <t>Business Strategies for Social Impact</t>
+  </si>
+  <si>
+    <t>wharton-social-impact</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/wharton-social-impact</t>
+  </si>
+  <si>
+    <t>Solving Delivery Problem</t>
+  </si>
+  <si>
+    <t>delivery-problem</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/delivery-problem</t>
+  </si>
+  <si>
+    <t>3D CAD Fundamental</t>
+  </si>
+  <si>
+    <t>3d-cad-fundamental</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/3d-cad-fundamental</t>
+  </si>
+  <si>
+    <t>More C# Programming and Unity</t>
+  </si>
+  <si>
+    <t>more-programming-unity</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/more-programming-unity</t>
+  </si>
+  <si>
+    <t>Intermediate Object-Oriented Programming for Unity Games</t>
+  </si>
+  <si>
+    <t>intermediate-object-oriented-programming-unity-games</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/intermediate-object-oriented-programming-unity-games</t>
+  </si>
+  <si>
+    <t>Introduction to C# Programming and Unity</t>
+  </si>
+  <si>
+    <t>introduction-programming-unity</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/introduction-programming-unity</t>
+  </si>
+  <si>
+    <t>Strategic Sales Management Final Project</t>
+  </si>
+  <si>
+    <t>ssm-final-project</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/ssm-final-project</t>
+  </si>
+  <si>
+    <t>Innovating with the Business Model Canvas</t>
+  </si>
+  <si>
+    <t>uva-darden-innovation-business-model-canvas</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/uva-darden-innovation-business-model-canvas</t>
+  </si>
+  <si>
+    <t>Applying Machine Learning to your Data with GCP</t>
+  </si>
+  <si>
+    <t>data-insights-gcp-apply-ml</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/data-insights-gcp-apply-ml</t>
+  </si>
+  <si>
+    <t>Exploring Beethoven's Piano Sonatas Part 3</t>
+  </si>
+  <si>
+    <t>exploring-beethoven-piano-sonatas-3</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/exploring-beethoven-piano-sonatas-3</t>
+  </si>
+  <si>
+    <t>On Being a Scientist</t>
+  </si>
+  <si>
+    <t>scientist</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/scientist</t>
+  </si>
+  <si>
+    <t>Genome Assembly Programming Challenge</t>
+  </si>
+  <si>
+    <t>assembling-genomes</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/assembling-genomes</t>
+  </si>
+  <si>
+    <t>Version Control with Git</t>
+  </si>
+  <si>
+    <t>version-control-with-git</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/version-control-with-git</t>
+  </si>
+  <si>
+    <t>3D Model Creation with Autodesk Fusion 360</t>
+  </si>
+  <si>
+    <t>3d-model-creation-fusion-360</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/3d-model-creation-fusion-360</t>
+  </si>
+  <si>
+    <t>Organising an Empire: The Assyrian Way</t>
+  </si>
+  <si>
+    <t>organising-an-empire</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/organising-an-empire</t>
+  </si>
+  <si>
+    <t>Excel/VBA for Creative Problem Solving, Part 2</t>
+  </si>
+  <si>
+    <t>excel-vba-for-creative-problem-solving-part-2</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/excel-vba-for-creative-problem-solving-part-2</t>
+  </si>
+  <si>
+    <t>Spatial Data Science and Applications</t>
+  </si>
+  <si>
+    <t>spatial-data-science</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/spatial-data-science</t>
+  </si>
+  <si>
+    <t>Protecting Business Innovations via Trademark</t>
+  </si>
+  <si>
+    <t>protect-business-innovations-trademark</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/protect-business-innovations-trademark</t>
+  </si>
+  <si>
+    <t>Practical Time Series Analysis</t>
+  </si>
+  <si>
+    <t>practical-time-series-analysis</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/practical-time-series-analysis</t>
+  </si>
+  <si>
+    <t>Information Theory</t>
+  </si>
+  <si>
+    <t>information-theory</t>
+  </si>
+  <si>
+    <t>https://coursera.org/learn/information-theory</t>
   </si>
 </sst>
 </file>
@@ -21779,7 +22346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1753"/>
+  <dimension ref="A1:F1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55589,6 +56156,888 @@
       <c r="E1753" t="s"/>
       <c r="F1753" t="s"/>
     </row>
+    <row r="1754" spans="1:6">
+      <c r="A1754" t="s">
+        <v>6943</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>6944</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>6945</v>
+      </c>
+      <c r="D1754" t="s"/>
+      <c r="E1754" t="s"/>
+      <c r="F1754" t="s"/>
+    </row>
+    <row r="1755" spans="1:6">
+      <c r="A1755" t="s">
+        <v>6946</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>6947</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>6948</v>
+      </c>
+      <c r="D1755" t="s"/>
+      <c r="E1755" t="s"/>
+      <c r="F1755" t="s"/>
+    </row>
+    <row r="1756" spans="1:6">
+      <c r="A1756" t="s">
+        <v>6949</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>6950</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>6951</v>
+      </c>
+      <c r="D1756" t="s"/>
+      <c r="E1756" t="s"/>
+      <c r="F1756" t="s"/>
+    </row>
+    <row r="1757" spans="1:6">
+      <c r="A1757" t="s">
+        <v>6952</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>6953</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>6954</v>
+      </c>
+      <c r="D1757" t="s"/>
+      <c r="E1757" t="s"/>
+      <c r="F1757" t="s"/>
+    </row>
+    <row r="1758" spans="1:6">
+      <c r="A1758" t="s">
+        <v>6955</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>6957</v>
+      </c>
+      <c r="D1758" t="s"/>
+      <c r="E1758" t="s"/>
+      <c r="F1758" t="s"/>
+    </row>
+    <row r="1759" spans="1:6">
+      <c r="A1759" t="s">
+        <v>6958</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>6959</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>6960</v>
+      </c>
+      <c r="D1759" t="s"/>
+      <c r="E1759" t="s"/>
+      <c r="F1759" t="s"/>
+    </row>
+    <row r="1760" spans="1:6">
+      <c r="A1760" t="s">
+        <v>6961</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>6962</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>6963</v>
+      </c>
+      <c r="D1760" t="s"/>
+      <c r="E1760" t="s"/>
+      <c r="F1760" t="s"/>
+    </row>
+    <row r="1761" spans="1:6">
+      <c r="A1761" t="s">
+        <v>6964</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>6966</v>
+      </c>
+      <c r="D1761" t="s"/>
+      <c r="E1761" t="s"/>
+      <c r="F1761" t="s"/>
+    </row>
+    <row r="1762" spans="1:6">
+      <c r="A1762" t="s">
+        <v>6967</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>6968</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>6969</v>
+      </c>
+      <c r="D1762" t="s"/>
+      <c r="E1762" t="s"/>
+      <c r="F1762" t="s"/>
+    </row>
+    <row r="1763" spans="1:6">
+      <c r="A1763" t="s">
+        <v>6970</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>6971</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>6972</v>
+      </c>
+      <c r="D1763" t="s"/>
+      <c r="E1763" t="s"/>
+      <c r="F1763" t="s"/>
+    </row>
+    <row r="1764" spans="1:6">
+      <c r="A1764" t="s">
+        <v>6973</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>6974</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>6975</v>
+      </c>
+      <c r="D1764" t="s"/>
+      <c r="E1764" t="s"/>
+      <c r="F1764" t="s"/>
+    </row>
+    <row r="1765" spans="1:6">
+      <c r="A1765" t="s">
+        <v>6976</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>6977</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>6978</v>
+      </c>
+      <c r="D1765" t="s"/>
+      <c r="E1765" t="s"/>
+      <c r="F1765" t="s"/>
+    </row>
+    <row r="1766" spans="1:6">
+      <c r="A1766" t="s">
+        <v>6979</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>6980</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>6981</v>
+      </c>
+      <c r="D1766" t="s"/>
+      <c r="E1766" t="s"/>
+      <c r="F1766" t="s"/>
+    </row>
+    <row r="1767" spans="1:6">
+      <c r="A1767" t="s">
+        <v>6982</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>6984</v>
+      </c>
+      <c r="D1767" t="s"/>
+      <c r="E1767" t="s"/>
+      <c r="F1767" t="s"/>
+    </row>
+    <row r="1768" spans="1:6">
+      <c r="A1768" t="s">
+        <v>6985</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>6986</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>6987</v>
+      </c>
+      <c r="D1768" t="s"/>
+      <c r="E1768" t="s"/>
+      <c r="F1768" t="s"/>
+    </row>
+    <row r="1769" spans="1:6">
+      <c r="A1769" t="s">
+        <v>6988</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>6989</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>6990</v>
+      </c>
+      <c r="D1769" t="s"/>
+      <c r="E1769" t="s"/>
+      <c r="F1769" t="s"/>
+    </row>
+    <row r="1770" spans="1:6">
+      <c r="A1770" t="s">
+        <v>6991</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>6992</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>6993</v>
+      </c>
+      <c r="D1770" t="s"/>
+      <c r="E1770" t="s"/>
+      <c r="F1770" t="s"/>
+    </row>
+    <row r="1771" spans="1:6">
+      <c r="A1771" t="s">
+        <v>6994</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>6995</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>6996</v>
+      </c>
+      <c r="D1771" t="s"/>
+      <c r="E1771" t="s"/>
+      <c r="F1771" t="s"/>
+    </row>
+    <row r="1772" spans="1:6">
+      <c r="A1772" t="s">
+        <v>6997</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>6998</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>6999</v>
+      </c>
+      <c r="D1772" t="s"/>
+      <c r="E1772" t="s"/>
+      <c r="F1772" t="s"/>
+    </row>
+    <row r="1773" spans="1:6">
+      <c r="A1773" t="s">
+        <v>7000</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>7001</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>7002</v>
+      </c>
+      <c r="D1773" t="s"/>
+      <c r="E1773" t="s"/>
+      <c r="F1773" t="s"/>
+    </row>
+    <row r="1774" spans="1:6">
+      <c r="A1774" t="s">
+        <v>7003</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>7004</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>7005</v>
+      </c>
+      <c r="D1774" t="s"/>
+      <c r="E1774" t="s"/>
+      <c r="F1774" t="s"/>
+    </row>
+    <row r="1775" spans="1:6">
+      <c r="A1775" t="s">
+        <v>7006</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>7007</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>7008</v>
+      </c>
+      <c r="D1775" t="s"/>
+      <c r="E1775" t="s"/>
+      <c r="F1775" t="s"/>
+    </row>
+    <row r="1776" spans="1:6">
+      <c r="A1776" t="s">
+        <v>7009</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>7011</v>
+      </c>
+      <c r="D1776" t="s"/>
+      <c r="E1776" t="s"/>
+      <c r="F1776" t="s"/>
+    </row>
+    <row r="1777" spans="1:6">
+      <c r="A1777" t="s">
+        <v>7012</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>7013</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>7014</v>
+      </c>
+      <c r="D1777" t="s"/>
+      <c r="E1777" t="s"/>
+      <c r="F1777" t="s"/>
+    </row>
+    <row r="1778" spans="1:6">
+      <c r="A1778" t="s">
+        <v>7015</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>7016</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>7017</v>
+      </c>
+      <c r="D1778" t="s"/>
+      <c r="E1778" t="s"/>
+      <c r="F1778" t="s"/>
+    </row>
+    <row r="1779" spans="1:6">
+      <c r="A1779" t="s">
+        <v>7018</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>7019</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>7020</v>
+      </c>
+      <c r="D1779" t="s"/>
+      <c r="E1779" t="s"/>
+      <c r="F1779" t="s"/>
+    </row>
+    <row r="1780" spans="1:6">
+      <c r="A1780" t="s">
+        <v>7021</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>7022</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>7023</v>
+      </c>
+      <c r="D1780" t="s"/>
+      <c r="E1780" t="s"/>
+      <c r="F1780" t="s"/>
+    </row>
+    <row r="1781" spans="1:6">
+      <c r="A1781" t="s">
+        <v>7024</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>7025</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>7026</v>
+      </c>
+      <c r="D1781" t="s"/>
+      <c r="E1781" t="s"/>
+      <c r="F1781" t="s"/>
+    </row>
+    <row r="1782" spans="1:6">
+      <c r="A1782" t="s">
+        <v>7027</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>7028</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>7029</v>
+      </c>
+      <c r="D1782" t="s"/>
+      <c r="E1782" t="s"/>
+      <c r="F1782" t="s"/>
+    </row>
+    <row r="1783" spans="1:6">
+      <c r="A1783" t="s">
+        <v>7030</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>7031</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>7032</v>
+      </c>
+      <c r="D1783" t="s"/>
+      <c r="E1783" t="s"/>
+      <c r="F1783" t="s"/>
+    </row>
+    <row r="1784" spans="1:6">
+      <c r="A1784" t="s">
+        <v>7033</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>7034</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>7035</v>
+      </c>
+      <c r="D1784" t="s"/>
+      <c r="E1784" t="s"/>
+      <c r="F1784" t="s"/>
+    </row>
+    <row r="1785" spans="1:6">
+      <c r="A1785" t="s">
+        <v>7036</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>7037</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>7038</v>
+      </c>
+      <c r="D1785" t="s"/>
+      <c r="E1785" t="s"/>
+      <c r="F1785" t="s"/>
+    </row>
+    <row r="1786" spans="1:6">
+      <c r="A1786" t="s">
+        <v>7039</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>7040</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>7041</v>
+      </c>
+      <c r="D1786" t="s"/>
+      <c r="E1786" t="s"/>
+      <c r="F1786" t="s"/>
+    </row>
+    <row r="1787" spans="1:6">
+      <c r="A1787" t="s">
+        <v>7042</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>7043</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>7044</v>
+      </c>
+      <c r="D1787" t="s"/>
+      <c r="E1787" t="s"/>
+      <c r="F1787" t="s"/>
+    </row>
+    <row r="1788" spans="1:6">
+      <c r="A1788" t="s">
+        <v>7045</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>7047</v>
+      </c>
+      <c r="D1788" t="s"/>
+      <c r="E1788" t="s"/>
+      <c r="F1788" t="s"/>
+    </row>
+    <row r="1789" spans="1:6">
+      <c r="A1789" t="s">
+        <v>7048</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>7049</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>7050</v>
+      </c>
+      <c r="D1789" t="s"/>
+      <c r="E1789" t="s"/>
+      <c r="F1789" t="s"/>
+    </row>
+    <row r="1790" spans="1:6">
+      <c r="A1790" t="s">
+        <v>7051</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>7052</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>7053</v>
+      </c>
+      <c r="D1790" t="s"/>
+      <c r="E1790" t="s"/>
+      <c r="F1790" t="s"/>
+    </row>
+    <row r="1791" spans="1:6">
+      <c r="A1791" t="s">
+        <v>7054</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>7055</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>7056</v>
+      </c>
+      <c r="D1791" t="s"/>
+      <c r="E1791" t="s"/>
+      <c r="F1791" t="s"/>
+    </row>
+    <row r="1792" spans="1:6">
+      <c r="A1792" t="s">
+        <v>7057</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>7058</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>7059</v>
+      </c>
+      <c r="D1792" t="s"/>
+      <c r="E1792" t="s"/>
+      <c r="F1792" t="s"/>
+    </row>
+    <row r="1793" spans="1:6">
+      <c r="A1793" t="s">
+        <v>7060</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>7061</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>7062</v>
+      </c>
+      <c r="D1793" t="s"/>
+      <c r="E1793" t="s"/>
+      <c r="F1793" t="s"/>
+    </row>
+    <row r="1794" spans="1:6">
+      <c r="A1794" t="s">
+        <v>7063</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>7065</v>
+      </c>
+      <c r="D1794" t="s"/>
+      <c r="E1794" t="s"/>
+      <c r="F1794" t="s"/>
+    </row>
+    <row r="1795" spans="1:6">
+      <c r="A1795" t="s">
+        <v>7066</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>7067</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>7068</v>
+      </c>
+      <c r="D1795" t="s"/>
+      <c r="E1795" t="s"/>
+      <c r="F1795" t="s"/>
+    </row>
+    <row r="1796" spans="1:6">
+      <c r="A1796" t="s">
+        <v>7069</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>7070</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>7071</v>
+      </c>
+      <c r="D1796" t="s"/>
+      <c r="E1796" t="s"/>
+      <c r="F1796" t="s"/>
+    </row>
+    <row r="1797" spans="1:6">
+      <c r="A1797" t="s">
+        <v>7072</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>7073</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>7074</v>
+      </c>
+      <c r="D1797" t="s"/>
+      <c r="E1797" t="s"/>
+      <c r="F1797" t="s"/>
+    </row>
+    <row r="1798" spans="1:6">
+      <c r="A1798" t="s">
+        <v>7075</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>7076</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>7077</v>
+      </c>
+      <c r="D1798" t="s"/>
+      <c r="E1798" t="s"/>
+      <c r="F1798" t="s"/>
+    </row>
+    <row r="1799" spans="1:6">
+      <c r="A1799" t="s">
+        <v>7078</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>7079</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>7080</v>
+      </c>
+      <c r="D1799" t="s"/>
+      <c r="E1799" t="s"/>
+      <c r="F1799" t="s"/>
+    </row>
+    <row r="1800" spans="1:6">
+      <c r="A1800" t="s">
+        <v>7081</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>7082</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>7083</v>
+      </c>
+      <c r="D1800" t="s"/>
+      <c r="E1800" t="s"/>
+      <c r="F1800" t="s"/>
+    </row>
+    <row r="1801" spans="1:6">
+      <c r="A1801" t="s">
+        <v>7084</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>7085</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>7086</v>
+      </c>
+      <c r="D1801" t="s"/>
+      <c r="E1801" t="s"/>
+      <c r="F1801" t="s"/>
+    </row>
+    <row r="1802" spans="1:6">
+      <c r="A1802" t="s">
+        <v>7087</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>7088</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>7089</v>
+      </c>
+      <c r="D1802" t="s"/>
+      <c r="E1802" t="s"/>
+      <c r="F1802" t="s"/>
+    </row>
+    <row r="1803" spans="1:6">
+      <c r="A1803" t="s">
+        <v>7090</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>7091</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>7092</v>
+      </c>
+      <c r="D1803" t="s"/>
+      <c r="E1803" t="s"/>
+      <c r="F1803" t="s"/>
+    </row>
+    <row r="1804" spans="1:6">
+      <c r="A1804" t="s">
+        <v>7093</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>7094</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>7095</v>
+      </c>
+      <c r="D1804" t="s"/>
+      <c r="E1804" t="s"/>
+      <c r="F1804" t="s"/>
+    </row>
+    <row r="1805" spans="1:6">
+      <c r="A1805" t="s">
+        <v>7096</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>7097</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>7098</v>
+      </c>
+      <c r="D1805" t="s"/>
+      <c r="E1805" t="s"/>
+      <c r="F1805" t="s"/>
+    </row>
+    <row r="1806" spans="1:6">
+      <c r="A1806" t="s">
+        <v>7099</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>7100</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>7101</v>
+      </c>
+      <c r="D1806" t="s"/>
+      <c r="E1806" t="s"/>
+      <c r="F1806" t="s"/>
+    </row>
+    <row r="1807" spans="1:6">
+      <c r="A1807" t="s">
+        <v>7102</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>7103</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>7104</v>
+      </c>
+      <c r="D1807" t="s"/>
+      <c r="E1807" t="s"/>
+      <c r="F1807" t="s"/>
+    </row>
+    <row r="1808" spans="1:6">
+      <c r="A1808" t="s">
+        <v>7105</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>7106</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>7107</v>
+      </c>
+      <c r="D1808" t="s"/>
+      <c r="E1808" t="s"/>
+      <c r="F1808" t="s"/>
+    </row>
+    <row r="1809" spans="1:6">
+      <c r="A1809" t="s">
+        <v>7108</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>7109</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>7110</v>
+      </c>
+      <c r="D1809" t="s"/>
+      <c r="E1809" t="s"/>
+      <c r="F1809" t="s"/>
+    </row>
+    <row r="1810" spans="1:6">
+      <c r="A1810" t="s">
+        <v>7111</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>7112</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>7113</v>
+      </c>
+      <c r="D1810" t="s"/>
+      <c r="E1810" t="s"/>
+      <c r="F1810" t="s"/>
+    </row>
+    <row r="1811" spans="1:6">
+      <c r="A1811" t="s">
+        <v>7114</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>7115</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>7116</v>
+      </c>
+      <c r="D1811" t="s"/>
+      <c r="E1811" t="s"/>
+      <c r="F1811" t="s"/>
+    </row>
+    <row r="1812" spans="1:6">
+      <c r="A1812" t="s">
+        <v>7117</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>7118</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>7119</v>
+      </c>
+      <c r="D1812" t="s"/>
+      <c r="E1812" t="s"/>
+      <c r="F1812" t="s"/>
+    </row>
+    <row r="1813" spans="1:6">
+      <c r="A1813" t="s">
+        <v>7120</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>7121</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>7122</v>
+      </c>
+      <c r="D1813" t="s"/>
+      <c r="E1813" t="s"/>
+      <c r="F1813" t="s"/>
+    </row>
+    <row r="1814" spans="1:6">
+      <c r="A1814" t="s">
+        <v>7123</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>7124</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>7125</v>
+      </c>
+      <c r="D1814" t="s"/>
+      <c r="E1814" t="s"/>
+      <c r="F1814" t="s"/>
+    </row>
+    <row r="1815" spans="1:6">
+      <c r="A1815" t="s">
+        <v>7126</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>7127</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>7128</v>
+      </c>
+      <c r="D1815" t="s"/>
+      <c r="E1815" t="s"/>
+      <c r="F1815" t="s"/>
+    </row>
+    <row r="1816" spans="1:6">
+      <c r="A1816" t="s">
+        <v>7129</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>7130</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>7131</v>
+      </c>
+      <c r="D1816" t="s"/>
+      <c r="E1816" t="s"/>
+      <c r="F1816" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
